--- a/04_Testing/04_Tdot_Release/TestReportOverview.xlsx
+++ b/04_Testing/04_Tdot_Release/TestReportOverview.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\04_Testing\03_Winter_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\04_Testing\04_Tdot_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test Report &lt;Project Name&gt;</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Okt 30, 2017</t>
+  </si>
+  <si>
+    <t>Jän 23, 2018</t>
+  </si>
+  <si>
+    <t>Jän 22, 2018</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$B$3:$B$21</c:f>
+              <c:f>'Sheet 1 - Test Report &lt;Project '!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -386,6 +392,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,10 +508,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$C$3:$C$21</c:f>
+              <c:f>'Sheet 1 - Test Report &lt;Project '!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -507,6 +519,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -618,10 +636,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$D$3:$D$21</c:f>
+              <c:f>'Sheet 1 - Test Report &lt;Project '!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -630,6 +648,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,6 +723,7 @@
         <c:axId val="2094734553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -816,13 +841,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1958,11 +1983,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.06640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2007,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D21" si="0">E3-C3-B3</f>
+        <f t="shared" ref="D3:D4" si="0">E3-C3-B3</f>
         <v>6</v>
       </c>
       <c r="E3" s="4">
@@ -2050,18 +2075,38 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -2161,6 +2206,13 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
+    <row r="22" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
